--- a/documents/계획서_제출/별첨1_요구사항_정의서.xlsx
+++ b/documents/계획서_제출/별첨1_요구사항_정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimz1\vscode_kdt_wd\_kdt_2nd_project\kdt2024_2_3\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhoon44/git/kdt2024_2_3/documents/계획서_제출/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8660FBC7-A732-4C85-9EA8-6339DBFFFDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520E2064-E9FF-EC4E-A921-D564730EAEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="-14780" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
   <si>
     <t>요구사항
  정의서</t>
@@ -71,9 +71,6 @@
     <t>하</t>
   </si>
   <si>
-    <t>회원</t>
-  </si>
-  <si>
     <t>중</t>
   </si>
   <si>
@@ -113,10 +110,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>배경화면 복귀</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>P001</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -137,10 +130,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>5초간 미조작시 배경화면으로 전환 / 배경화면으로 돌아가는 버튼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 메뉴 일괄 출력 / 최종 결제화면으로 전환</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -161,10 +150,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>M002</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>비회원</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -186,30 +171,6 @@
   </si>
   <si>
     <t>종류별 탭(추천, 이전에 주문한 메뉴, 음료 종류별(커피,에이드,베이커리…등) / 분류된 탭 별 메뉴 선택 화면 / 메뉴 별 옵션 선택 / 개수 지정</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴 확인 및 최종 결제 / 영수증 확인 / 번호표 출력</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이민아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -389,9 +350,6 @@
     <t>주문 처리</t>
   </si>
   <si>
-    <t>주문 내역 확인 후 주문 완료/취소 처리</t>
-  </si>
-  <si>
     <t>AP-S001</t>
   </si>
   <si>
@@ -450,6 +408,40 @@
   </si>
   <si>
     <t>상품에 옵션 연결 추가 및 제거</t>
+  </si>
+  <si>
+    <t>메뉴 확인 및 최종 결제 / 영수증 확인 / 번호표 출력 / 5초간 미조작시 메인 화면으로 전환</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이민아</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>회원</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장, 매장 식사 중 선택</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 / 회원 
+공통</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 내역 확인 후 주문 완료/취소/조리중 처리</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -579,6 +571,12 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -606,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -821,12 +819,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,9 +894,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,33 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -978,6 +959,42 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1223,41 +1240,41 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="121.44140625" customWidth="1"/>
+    <col min="5" max="5" width="121.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.8">
-      <c r="A2" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1268,45 +1285,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.8">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="55">
+      <c r="B3" s="38"/>
+      <c r="C3" s="45">
         <v>45531</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="13.8">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="13.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.2">
+    <row r="5" spans="1:8" ht="13">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -1330,21 +1347,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.2">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>14</v>
@@ -1352,21 +1369,21 @@
       <c r="G7" s="13"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="13.2">
-      <c r="A8" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>20</v>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>14</v>
@@ -1374,480 +1391,475 @@
       <c r="G8" s="18"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="13.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="44"/>
-      <c r="B10" s="42"/>
+      <c r="H9" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="A10" s="49"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="19"/>
-      <c r="H10" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="21" t="s">
-        <v>48</v>
+      <c r="H11" s="20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="9" t="s">
+      <c r="E15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="26"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="51"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="51"/>
+      <c r="B17" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="36" t="s">
+      <c r="G18" s="26"/>
+      <c r="H18" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="51"/>
+      <c r="B19" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="51"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="32"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="33" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="50"/>
+      <c r="B24" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="C24" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="33" t="s">
+      <c r="E24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="F24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="24" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="24" t="s">
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="50"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="29"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="34"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="36" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="G28" s="26"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="33" t="s">
+      <c r="D29" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="F29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="26"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37" t="s">
+      <c r="D30" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="E30" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="F30" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="28"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="33" t="s">
+      <c r="D31" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="34"/>
+      <c r="F31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A8:A12"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A1:H1"/>
@@ -1856,21 +1868,9 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="F7:G50">
+  <conditionalFormatting sqref="F7:G49">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"하"</formula>
     </cfRule>

--- a/documents/계획서_제출/별첨1_요구사항_정의서.xlsx
+++ b/documents/계획서_제출/별첨1_요구사항_정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhoon44/git/kdt2024_2_3/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimz1\vscode_kdt_wd\_kdt_2nd_project\kdt2024_2_3\documents\계획서_제출\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D9249-86C5-F746-A86F-0CA5D9DA2E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43141203-578A-49AE-8867-95A44E7C24DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-14780" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>요구사항
  정의서</t>
@@ -220,30 +220,12 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>관리자(키오스크)</t>
-  </si>
-  <si>
-    <t>메뉴관리</t>
-  </si>
-  <si>
-    <t>AK-M001</t>
-  </si>
-  <si>
-    <t>상품 및 재고 조회</t>
-  </si>
-  <si>
-    <t>AK-M002</t>
-  </si>
-  <si>
     <t>상품 품절/해제 처리</t>
   </si>
   <si>
     <t>원하는 상품 선택 후 [상품 품절 처리 / 상품 품절 해제 / 상품 숨기기] 처리</t>
   </si>
   <si>
-    <t>AK-M003</t>
-  </si>
-  <si>
     <t>옵션 품절/해제 처리</t>
   </si>
   <si>
@@ -251,9 +233,6 @@
   </si>
   <si>
     <t>매출 관리</t>
-  </si>
-  <si>
-    <t>AK-S001</t>
   </si>
   <si>
     <t>판매(결제) 목록 조회</t>
@@ -276,9 +255,6 @@
     </r>
   </si>
   <si>
-    <t>AK-S002</t>
-  </si>
-  <si>
     <t>환불(반품)</t>
   </si>
   <si>
@@ -289,9 +265,6 @@
   </si>
   <si>
     <t>로그인</t>
-  </si>
-  <si>
-    <t>AK-L001</t>
   </si>
   <si>
     <t>비밀번호 입력하여 로그인</t>
@@ -311,97 +284,34 @@
     </r>
   </si>
   <si>
-    <t>AK-L002</t>
-  </si>
-  <si>
     <t>비밀번호 변경</t>
   </si>
   <si>
-    <t>새 비밀번호을 입력받고 변경</t>
-  </si>
-  <si>
-    <t>AK-L003</t>
-  </si>
-  <si>
     <t>로그아웃</t>
   </si>
   <si>
-    <t>로그아웃 버튼을 조작하여 로그아웃</t>
-  </si>
-  <si>
-    <t>관리자(POS)</t>
-  </si>
-  <si>
     <t>주문 관리</t>
   </si>
   <si>
-    <t>AP-O001</t>
-  </si>
-  <si>
     <t>주문 조회</t>
   </si>
   <si>
     <t>주문 목록 및 내역 조회</t>
   </si>
   <si>
-    <t>AP-O002</t>
-  </si>
-  <si>
     <t>주문 처리</t>
   </si>
   <si>
-    <t>AP-S001</t>
-  </si>
-  <si>
-    <t>AP-S002</t>
-  </si>
-  <si>
-    <t>AP-S003</t>
-  </si>
-  <si>
     <t>매출 조회</t>
   </si>
   <si>
-    <t>매출 현황 조회</t>
-  </si>
-  <si>
-    <t>AP-S004</t>
-  </si>
-  <si>
     <t>매출 분석</t>
   </si>
   <si>
-    <t>상품 분석(어떤 상품/카테고리가 많이 팔렸는지) / 매출 분석(기간 동안의 실 매출, 환불, 평균 결제 금액)</t>
-  </si>
-  <si>
     <t>상품 관리</t>
   </si>
   <si>
-    <t>AP-P001</t>
-  </si>
-  <si>
-    <t>상품 목록 조회 / 상품 추가 및 삭제 / 상품 내용 수정 / 상품 재고 조회 및 수정</t>
-  </si>
-  <si>
-    <t>AP-P002</t>
-  </si>
-  <si>
-    <t>상품 이미지 관리</t>
-  </si>
-  <si>
-    <t>상품 이미지 등록 및 수정</t>
-  </si>
-  <si>
-    <t>AP-P003</t>
-  </si>
-  <si>
     <t>옵션 관리</t>
-  </si>
-  <si>
-    <t>옵션 목록 조회 / 옵션 추가 및 삭제 / 옵션 내용 수정 / 옵션 재고 조회 및 수정</t>
-  </si>
-  <si>
-    <t>AP-P004</t>
   </si>
   <si>
     <t>상품-옵션 연결</t>
@@ -443,6 +353,94 @@
     <t>주문 내역 확인 후 주문 완료/취소/조리중 처리</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>A-M001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-M002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-L001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-L002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-L003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-O001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-O002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-S001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-S002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-S003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-S004</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-P001</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-P002</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A-P003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자(POS)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 현황(달력) 조회</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 분석(어떤 상품/카테고리가 많이 팔렸는지) / 매출 분석(기간 동안의 실 매출, 환불, 평균 결제 금액)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 관리</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호을 입력받고 변경</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 버튼을 조작하여 로그아웃</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 목록 조회 / 상품 추가 및 삭제 / 상품 내용 및 이미지 수정 / 상품 재고 조회 및 수정</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 목록 조회 / 옵션 추가 및 삭제 / 옵션 내용 및 이미지 수정 / 옵션 재고 조회 및 수정</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -451,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -533,13 +531,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="&quot;Times New Roman&quot;"/>
       <family val="3"/>
@@ -604,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -806,21 +797,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -832,12 +808,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,10 +907,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,10 +919,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,46 +943,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -996,11 +972,56 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1246,41 +1267,41 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="121.5" customWidth="1"/>
+    <col min="5" max="5" width="121.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-    </row>
-    <row r="2" spans="1:8" ht="13">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.8">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1291,45 +1312,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:8" ht="13.8">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="57">
+      <c r="B3" s="37"/>
+      <c r="C3" s="44">
         <v>45531</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="13">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:8" ht="13.8">
+      <c r="A4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="13">
-      <c r="A5" s="51"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="13">
+    <row r="5" spans="1:8" ht="13.2">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -1353,7 +1374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13">
+    <row r="7" spans="1:8" ht="13.2">
       <c r="A7" s="11" t="s">
         <v>36</v>
       </c>
@@ -1375,11 +1396,11 @@
       <c r="G7" s="13"/>
       <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="13" customHeight="1">
-      <c r="A8" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="43" t="s">
+    <row r="8" spans="1:8" ht="13.05" customHeight="1">
+      <c r="A8" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1397,9 +1418,9 @@
       <c r="G8" s="18"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="13">
-      <c r="A9" s="58"/>
-      <c r="B9" s="44"/>
+    <row r="9" spans="1:8" ht="13.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1413,13 +1434,13 @@
         <v>14</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="36" t="s">
-        <v>102</v>
+      <c r="H9" s="34" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="A10" s="58"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1448,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>15</v>
@@ -1436,8 +1457,8 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="54"/>
+      <c r="B11" s="48" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1447,7 +1468,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>14</v>
@@ -1458,10 +1479,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="42"/>
+      <c r="A12" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="49"/>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1501,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="47"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
@@ -1503,358 +1524,286 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="46"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="46"/>
+      <c r="B16" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="46"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="46"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="46"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="46"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="46"/>
+      <c r="B23" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="E23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="F23" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="46"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="35" t="s">
+      <c r="F24" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="35" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="46"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="32" t="s">
+      <c r="E26" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="35" t="s">
+      <c r="E27" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="33"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
+    <mergeCell ref="A14:A27"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A1:H1"/>
@@ -1863,21 +1812,9 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B19:B21"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="F7:G49">
+  <conditionalFormatting sqref="F7:G27">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"하"</formula>
     </cfRule>
